--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,9 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>if game is not started yet and not two people are sit yet</t>
+  </si>
+  <si>
+    <t>username shouldn’t contain special characters or space. Fix style of the page.</t>
+  </si>
+  <si>
+    <t>fullscreen button</t>
   </si>
 </sst>
 </file>
@@ -357,15 +363,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>if game is not started yet and not two people are sit yet</t>
   </si>
@@ -25,6 +25,15 @@
   </si>
   <si>
     <t>fullscreen button</t>
+  </si>
+  <si>
+    <t>sit places style &gt;&gt; top, left, right and bottom</t>
+  </si>
+  <si>
+    <t>card size width = height*0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addAPlyerToTable &gt;&gt;&gt;&gt; Check if it hasn’t added it before &gt;&gt;&gt; means only at the beginning and new sit we should add </t>
   </si>
 </sst>
 </file>
@@ -363,11 +372,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -376,17 +383,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>if game is not started yet and not two people are sit yet</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t xml:space="preserve">addAPlyerToTable &gt;&gt;&gt;&gt; Check if it hasn’t added it before &gt;&gt;&gt; means only at the beginning and new sit we should add </t>
+  </si>
+  <si>
+    <t xml:space="preserve">top bar style Small : 10$ / Big: 20$ </t>
   </si>
 </sst>
 </file>
@@ -372,9 +375,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -409,6 +414,11 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>if game is not started yet and not two people are sit yet</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t xml:space="preserve">addAPlyerToTable &gt;&gt;&gt;&gt; Check if it hasn’t added it before &gt;&gt;&gt; means only at the beginning and new sit we should add </t>
-  </si>
-  <si>
-    <t xml:space="preserve">top bar style Small : 10$ / Big: 20$ </t>
   </si>
 </sst>
 </file>
@@ -375,11 +372,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -414,11 +409,6 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -18,25 +18,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>if game is not started yet and not two people are sit yet</t>
-  </si>
-  <si>
-    <t>username shouldn’t contain special characters or space. Fix style of the page.</t>
-  </si>
-  <si>
     <t>fullscreen button</t>
   </si>
   <si>
-    <t>sit places style &gt;&gt; top, left, right and bottom</t>
-  </si>
-  <si>
     <t>card size width = height*0.7</t>
   </si>
   <si>
-    <t xml:space="preserve">addAPlyerToTable &gt;&gt;&gt;&gt; Check if it hasn’t added it before &gt;&gt;&gt; means only at the beginning and new sit we should add </t>
-  </si>
-  <si>
-    <t xml:space="preserve">top bar style Small : 10$ / Big: 20$ </t>
+    <t>Create a new function In game.js to remove a player from the view and puts the waiting circle back</t>
+  </si>
+  <si>
+    <t>All in is all the chip in and then raise</t>
+  </si>
+  <si>
+    <t>username in the login page shouldn’t contain special characters (like: $&amp; *(@ ; - ) or space. Fix style of the page.</t>
+  </si>
+  <si>
+    <t>sit places style &gt;&gt; top, left, right and bottom. Stick them to the table &gt;&gt;&gt;&gt; left side ones should flot to right, top ones should stick to  the bottom and etc…. &gt;&gt;&gt; each edge got a unique class in table.jsp</t>
+  </si>
+  <si>
+    <t>top bar style (Small : 10$ / Big: 20$ ) --- containing text</t>
   </si>
 </sst>
 </file>
@@ -388,32 +388,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fullscreen button</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>top bar style (Small : 10$ / Big: 20$ ) --- containing text</t>
+  </si>
+  <si>
+    <t>timer in the server</t>
   </si>
 </sst>
 </file>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +422,11 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neil\Documents\GitHub\ICryptoPoker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Neil's Work" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>fullscreen button</t>
   </si>
@@ -43,13 +48,52 @@
   </si>
   <si>
     <t>JSON in the table should do game once, then players… too many loops now</t>
+  </si>
+  <si>
+    <t>Job Done</t>
+  </si>
+  <si>
+    <t>Time Taken</t>
+  </si>
+  <si>
+    <t>Date done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Styling the old verticle slider </t>
+  </si>
+  <si>
+    <t>Improving the login page</t>
+  </si>
+  <si>
+    <t>styling the newer horizontal slider and setting the min and max</t>
+  </si>
+  <si>
+    <t>adding class "winner" and "loser" and styling at the end of game</t>
+  </si>
+  <si>
+    <t>trying to "lock" screen to horizontal</t>
+  </si>
+  <si>
+    <t>Experimental work done "Not actually used in project yet"</t>
+  </si>
+  <si>
+    <t>25/03/2019</t>
+  </si>
+  <si>
+    <t>25/03/2020</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>24/03/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +101,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,14 +154,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -89,6 +192,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -137,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,7 +278,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -444,12 +550,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3.3715277777777775E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4.4756944444444446E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6">
+        <v>7.3136574074074076E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6.6041666666666665E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <f>SUM(E2:E5)</f>
+        <v>0.21765046296296298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6.2418981481481478E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neil\Documents\GitHub\ICryptoPoker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Neil's Work" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>fullscreen button</t>
   </si>
   <si>
-    <t>card size width = height*0.7</t>
-  </si>
-  <si>
     <t>Create a new function In game.js to remove a player from the view and puts the waiting circle back</t>
   </si>
   <si>
@@ -38,18 +30,9 @@
     <t>username in the login page shouldn’t contain special characters (like: $&amp; *(@ ; - ) or space. Fix style of the page.</t>
   </si>
   <si>
-    <t>sit places style &gt;&gt; top, left, right and bottom. Stick them to the table &gt;&gt;&gt;&gt; left side ones should flot to right, top ones should stick to  the bottom and etc…. &gt;&gt;&gt; each edge got a unique class in table.jsp</t>
-  </si>
-  <si>
-    <t>top bar style (Small : 10$ / Big: 20$ ) --- containing text</t>
-  </si>
-  <si>
     <t>timer in the server</t>
   </si>
   <si>
-    <t>JSON in the table should do game once, then players… too many loops now</t>
-  </si>
-  <si>
     <t>Job Done</t>
   </si>
   <si>
@@ -87,12 +70,45 @@
   </si>
   <si>
     <t>24/03/2018</t>
+  </si>
+  <si>
+    <t>the player's sit, we dont need the name there</t>
+  </si>
+  <si>
+    <t>blocks at top &gt;&gt;&gt;&gt; lobby doesn’t need the text and the first 3 blocks should wrap the content.</t>
+  </si>
+  <si>
+    <t>slider should be presented only when it’s the players turn</t>
+  </si>
+  <si>
+    <t>show the game rank at the end of the hand</t>
+  </si>
+  <si>
+    <t>notification , when a new player added or it’s the players turn</t>
+  </si>
+  <si>
+    <t>get the ip address, location and mac address of a user</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>green to red color range timer, last 5 seconds need a sound</t>
+  </si>
+  <si>
+    <t>UX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,64 +503,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="181" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -552,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -566,21 +634,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6">
         <v>3.3715277777777775E-2</v>
@@ -588,10 +656,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6">
         <v>4.4756944444444446E-2</v>
@@ -599,10 +667,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="6">
         <v>7.3136574074074076E-2</v>
@@ -610,10 +678,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="6">
         <v>6.6041666666666665E-2</v>
@@ -621,7 +689,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="8">
         <f>SUM(E2:E5)</f>
@@ -630,15 +698,15 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11" s="6">
         <v>6.2418981481481478E-2</v>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>fullscreen button</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>UX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sit in popup, a popup which asks the user to select the amoun of chips and confirm </t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,6 +611,14 @@
       </c>
       <c r="B12" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neil\Documents\GitHub\ICryptoPoker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580"/>
   </bookViews>
@@ -11,7 +16,8 @@
     <sheet name="Neil's Work" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -111,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +147,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -189,7 +207,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -199,6 +217,9 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -262,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,7 +318,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,15 +538,24 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -533,7 +563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -541,15 +571,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -557,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -565,7 +596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -573,23 +604,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -597,7 +634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -605,7 +642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -613,13 +650,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -154,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,7 +213,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -220,6 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -530,7 +537,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,12 +563,15 @@
       <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -589,20 +599,32 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -618,21 +640,30 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neil\Documents\GitHub\ICryptoPoker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580"/>
   </bookViews>
@@ -16,13 +11,12 @@
     <sheet name="Neil's Work" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>fullscreen button</t>
   </si>
@@ -112,12 +106,24 @@
   </si>
   <si>
     <t xml:space="preserve">sit in popup, a popup which asks the user to select the amoun of chips and confirm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI </t>
+  </si>
+  <si>
+    <t>01-04-2018</t>
+  </si>
+  <si>
+    <t>SIT_OUT_   reduce the opacity of playerInfo div</t>
+  </si>
+  <si>
+    <t>LOST &gt;&gt;&gt;&gt; text should be presented over the card, follow the style I put for the winner.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,7 +324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,6 +670,27 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
